--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q2">
-        <v>2.445867302858222</v>
+        <v>0.0333845778</v>
       </c>
       <c r="R2">
-        <v>22.012805725724</v>
+        <v>0.3004612001999999</v>
       </c>
       <c r="S2">
-        <v>0.004076697595240886</v>
+        <v>6.222021381574401E-05</v>
       </c>
       <c r="T2">
-        <v>0.004076697595240887</v>
+        <v>6.222021381574401E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.452321</v>
       </c>
       <c r="O3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q3">
-        <v>40.12862917223966</v>
+        <v>9.260987963555998</v>
       </c>
       <c r="R3">
-        <v>361.157662550157</v>
+        <v>83.34889167200399</v>
       </c>
       <c r="S3">
-        <v>0.06688518459509639</v>
+        <v>0.01726008502157802</v>
       </c>
       <c r="T3">
-        <v>0.0668851845950964</v>
+        <v>0.01726008502157802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I4">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J4">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N4">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q4">
-        <v>31.25903122546267</v>
+        <v>1.84878119765</v>
       </c>
       <c r="R4">
-        <v>281.331281029164</v>
+        <v>16.63903077885</v>
       </c>
       <c r="S4">
-        <v>0.05210160717937783</v>
+        <v>0.003445649728010347</v>
       </c>
       <c r="T4">
-        <v>0.05210160717937783</v>
+        <v>0.003445649728010348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,22 +744,22 @@
         <v>4.452321</v>
       </c>
       <c r="O5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q5">
         <v>512.857778859953</v>
       </c>
       <c r="R5">
-        <v>4615.720009739577</v>
+        <v>4615.720009739576</v>
       </c>
       <c r="S5">
-        <v>0.8548158239556575</v>
+        <v>0.9558341833435986</v>
       </c>
       <c r="T5">
-        <v>0.8548158239556576</v>
+        <v>0.9558341833435988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H6">
         <v>25.286216</v>
       </c>
       <c r="I6">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J6">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q6">
-        <v>0.7624412231502223</v>
+        <v>0.04509375186666666</v>
       </c>
       <c r="R6">
-        <v>6.861971008352</v>
+        <v>0.4058437667999999</v>
       </c>
       <c r="S6">
-        <v>0.001270813955154788</v>
+        <v>8.404308419614356E-05</v>
       </c>
       <c r="T6">
-        <v>0.001270813955154788</v>
+        <v>8.404308419614358E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H7">
         <v>25.286216</v>
       </c>
       <c r="I7">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J7">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>4.452321</v>
       </c>
       <c r="O7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q7">
-        <v>12.50915005637067</v>
+        <v>12.50915005637066</v>
       </c>
       <c r="R7">
         <v>112.582350507336</v>
       </c>
       <c r="S7">
-        <v>0.02084987271947261</v>
+        <v>0.02331381860880113</v>
       </c>
       <c r="T7">
-        <v>0.02084987271947262</v>
+        <v>0.02331381860880113</v>
       </c>
     </row>
   </sheetData>
